--- a/biology/Botanique/Kampochloa_brachyphylla/Kampochloa_brachyphylla.xlsx
+++ b/biology/Botanique/Kampochloa_brachyphylla/Kampochloa_brachyphylla.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kampochloa brachyphylla  est une espèce de  plantes monocotylédones de la famille des Poaceae, sous-famille des Chloridoideae, originaire d'Afrique australe.  C'est l'unique espèce du genre Kampochloa (genre monotypique).
 Ce sont des plantes herbacées, vivaces, cespiteuses, aux tiges dressées de 15 à 30 cm de long. Les inflorescences sont composées de racèmes.
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Kampochloa » dérive d'une racine grecques : kampḗ (καμπή), la « chenille », en référence à l'inflorescence qui présente une ressemblance fantaisiste avec une chemille, avec le suffixe chloa (χλόα), signifiant « herbe »[3].
-L'épithète spécifique « brachyphylla » est composée de deux racines grecques : brachys (βραχύς), court, et phyllon (φύλλον), feuille, en référence au limbe foliaire court[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Kampochloa » dérive d'une racine grecques : kampḗ (καμπή), la « chenille », en référence à l'inflorescence qui présente une ressemblance fantaisiste avec une chemille, avec le suffixe chloa (χλόα), signifiant « herbe ».
+L'épithète spécifique « brachyphylla » est composée de deux racines grecques : brachys (βραχύς), court, et phyllon (φύλλον), feuille, en référence au limbe foliaire court.
 </t>
         </is>
       </c>
